--- a/FHIR_Resource-HL7_Triggers.xlsx
+++ b/FHIR_Resource-HL7_Triggers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\124578\Documents\FHIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\1219\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="540">
   <si>
     <t>Coverage</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>PractionerRole</t>
-  </si>
-  <si>
     <t>Practitioner</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>FHIR Resource</t>
   </si>
   <si>
-    <t>AL1</t>
-  </si>
-  <si>
     <t>HL7 Message Type</t>
   </si>
   <si>
@@ -1300,27 +1294,15 @@
     <t>VXX_V02 - Response to vaccination query</t>
   </si>
   <si>
-    <t>SCH</t>
-  </si>
-  <si>
     <t>HL7 Segment - Primary</t>
   </si>
   <si>
     <t>HL7 Segments - secondary</t>
   </si>
   <si>
-    <t xml:space="preserve">AIP, AIL, </t>
-  </si>
-  <si>
-    <t>IAM, OBX</t>
-  </si>
-  <si>
     <t>In response to Appointment</t>
   </si>
   <si>
-    <t>PTH, OBR, ORC, RXE, RXO, RXD, RXG, TQ1, GOL, PID.3, PRB</t>
-  </si>
-  <si>
     <t>Has mappings to 1-2 fields of many HL7 Segments. No HL7 Trigger. Ref'd by many Resources</t>
   </si>
   <si>
@@ -1333,24 +1315,12 @@
     <t>REL, PRT</t>
   </si>
   <si>
-    <t>No trigger. Referenced by many</t>
-  </si>
-  <si>
-    <t>FT1, PV1, NTE, EVN</t>
-  </si>
-  <si>
     <t>FT1</t>
   </si>
   <si>
     <t>DFT</t>
   </si>
   <si>
-    <t>No specific trigger, could be ORU</t>
-  </si>
-  <si>
-    <t>FHIR team agreed to create a "condition" FHIR resource to represent "problem" and "diagnosis", and the "observation" FHIR resource to represent general observation findings.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -1363,64 +1333,334 @@
     <t>RDS</t>
   </si>
   <si>
-    <t>RXE|RXO</t>
-  </si>
-  <si>
-    <t>RXR,RXC,ORC</t>
-  </si>
-  <si>
     <t>PV1</t>
   </si>
   <si>
-    <t>VXU</t>
-  </si>
-  <si>
     <t>MSH</t>
   </si>
   <si>
-    <t>OBR</t>
-  </si>
-  <si>
-    <t>RDS|RAS</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
-    <t>BAR_P01</t>
-  </si>
-  <si>
-    <t>SRR_S01</t>
-  </si>
-  <si>
-    <t>ADT_A60</t>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>SRM</t>
+  </si>
+  <si>
+    <t>AL1, IAM</t>
+  </si>
+  <si>
+    <t>resource will be creatd if there is an ADT with AL1 segment or ADT A60 with IAM segment</t>
+  </si>
+  <si>
+    <t>ADT or ADT_A60</t>
+  </si>
+  <si>
+    <t>SCH, RGS</t>
+  </si>
+  <si>
+    <t>ARQ, RGS</t>
+  </si>
+  <si>
+    <t>PID,AIP, AIL, AIS,AIG</t>
+  </si>
+  <si>
+    <t>EVN,PID</t>
+  </si>
+  <si>
+    <t>SRR</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>MSA,SCH,RGS</t>
+  </si>
+  <si>
+    <t>Notification of appointment (new, cancel,modification etc.)</t>
+  </si>
+  <si>
+    <t>Request of appointment (new, cancel,modification etc.)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>FHIR team agreed to create a "condition" FHIR resource to represent "problem" and "diagnosis", and the "observation" 
+FHIR resource to represent general observation findings.
+ 'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
+  </si>
+  <si>
+    <t>PPR^PC1,PC2,PC3</t>
+  </si>
+  <si>
+    <t>PRB,PID,ROL</t>
+  </si>
+  <si>
+    <t>PV1, REL,DG1,OBX,ORC,OBR,PTH
+,ABS</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>No particular trigger event.As per HL7 understanding , consent FHIR resource shall be created if CON HL7 segment received.</t>
+  </si>
+  <si>
+    <t>PTH, OBR, ORC, RXE, RXO, RXD, RXG, TQ1, GOL, PID.3, PRB, GOL</t>
+  </si>
+  <si>
+    <t>Has mappings to 1-2 fields of few HL7 Segments. No HL7 Trigger. Ref'd by many Resources</t>
+  </si>
+  <si>
+    <t>PV1, NTE, EVN ,PID,TQ1,OBR,
+PR1,OBX,IN1</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>BAR^P01,P03,P05
+,P10</t>
+  </si>
+  <si>
+    <t>as per HL7 understanding, this resource can be created for BAR Message types</t>
+  </si>
+  <si>
+    <t>PID,EVN</t>
+  </si>
+  <si>
+    <t>IN1,PR1,PV1</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>MFE,OM1</t>
+  </si>
+  <si>
+    <t>No particular trigger event.As per HL7 understanding , GOAL FHIR resource shall be created if GOL HL7 segment received.
+Has mappings to many fields of GOL Segment.</t>
+  </si>
+  <si>
+    <t>MFN^M03,M08,
+M09, M10, M11, M12</t>
+  </si>
+  <si>
+    <t>Resource shall be created if OM1 segment is received.Has mappings to many fields of OM1 Segment.So, Om1 segment comes in MFN message
+types and mentioned trigger events</t>
+  </si>
+  <si>
+    <t>Has mappings to many fields of  HL7 Segments specially PV1. No HL7 Trigger. Ref'd by many Resources</t>
+  </si>
+  <si>
+    <t>ROL,PID,SCH,PRT</t>
+  </si>
+  <si>
+    <t>VXU^V04</t>
+  </si>
+  <si>
+    <t>RXA</t>
+  </si>
+  <si>
+    <t>PID,ORC,OBX</t>
+  </si>
+  <si>
+    <t>Has mappings to some fields of PID,ORC,OBX Segments.</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Has mappings to some fields of PID ,RXA Segments.</t>
+  </si>
+  <si>
+    <t>includes both incidental locations (a place which is used for healthcare without prior designation or authorization) and dedicated, formally appointed locations. Locations may be private, public, mobile or fixed and scale from small freezers to full hospital buildings or parking garages.</t>
+  </si>
+  <si>
+    <t>The Media resource contains photos, videos, and audio recordings. It is used with media acquired or used as part of the healthcare process. Here are some typical usages:
+Photos and videos of diagnostic or care provision procedures for recording purposes
+Images contained in diagnostic reports.This data comes in ORU event types but not sure when to identify that message contains images etc.</t>
+  </si>
+  <si>
+    <t>ORU^R01</t>
+  </si>
+  <si>
+    <t>RXE</t>
+  </si>
+  <si>
+    <t>RDE^O11</t>
+  </si>
+  <si>
+    <t>RXD,RXO,PID,PV1,ORC</t>
+  </si>
+  <si>
+    <t>Has mappings to fields of RXE,RXD,RXO , PID,ORC,OV1 Segments.</t>
+  </si>
+  <si>
+    <t>Has mappings to fields of PRT,ROL,OBR,ORC,RXE,RXD,RXG,RXO,RXA, Segments.No particular trigger events</t>
+  </si>
+  <si>
+    <t>Resource shall be created if IN1 segment is received.Has mappings to many fields of IN1 Segment.No particular trigger events</t>
+  </si>
+  <si>
+    <t>PID,PV1,SPM</t>
+  </si>
+  <si>
+    <t>ORU event types have information for this resource. This resource will be created for OBX segments</t>
+  </si>
+  <si>
+    <t>Resource shall be created for ERR HL7 segment</t>
+  </si>
+  <si>
+    <t>PID,NK1</t>
+  </si>
+  <si>
+    <t>ADT^A01,A04,A05</t>
+  </si>
+  <si>
+    <t>PD1,MRG</t>
+  </si>
+  <si>
+    <t>Resource is created out of PID segment and some fields of NK1 for ADT message types specially admission, registration, 
+pre-admission and pre-registration.For other triggers, there may be update in the resource data or used as reference</t>
+  </si>
+  <si>
+    <t>PV2-23, NK1-13, PD1-3, 
+OBR-44</t>
+  </si>
+  <si>
+    <t>XON: Extended Composite Name and Identification Number for Organizations
+This data type is used in fields (e.g., PV2-23, NK1-13, PD1-3, OBR-44) to specify the name and ID number of an organization.
+Has mappings to XON datatype.No particular trigger events</t>
+  </si>
+  <si>
+    <t>PRT,ROL,OBR,ORC,RXE,RXD,RXG,RXO,RXA
+MSA,SFT</t>
+  </si>
+  <si>
+    <t>No information about which HL7 data be used to create the resource</t>
+  </si>
+  <si>
+    <t>may be NK1 or PID, as per definition , a person resource provides a mechanism for linking patient resources across different organizations and their unique patient identity domains.</t>
+  </si>
+  <si>
+    <t>PRD,PRA,STF,PV1</t>
+  </si>
+  <si>
+    <t>EDU,AFF,ORC,OBR,PRT,ROL</t>
+  </si>
+  <si>
+    <t>STF,ROL,ORC,PRT</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>SAC,OBX</t>
+  </si>
+  <si>
+    <t>No specific trigger event.Has mapping to few fields of few HL7 segments.</t>
+  </si>
+  <si>
+    <t>No specific trigger event.Has mapping to few fields of SPM/SAC segments</t>
+  </si>
+  <si>
+    <t>No specific trigger event.Has mapping to few fields of HL7 segments</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>No specific trigger event.Has mapping to few fields of NK1/PIDsegments</t>
   </si>
   <si>
     <t>PID</t>
   </si>
   <si>
-    <t>PR1</t>
-  </si>
-  <si>
-    <t>ADT_A20</t>
-  </si>
-  <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>PRD</t>
-  </si>
-  <si>
-    <t>ORU_R01</t>
-  </si>
-  <si>
-    <t>PRB, PID, PV1, REL,DG1</t>
-  </si>
-  <si>
-    <t>SRM</t>
-  </si>
-  <si>
-    <t>ARQ</t>
+    <t>NK1</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>REF^I12,I13,14</t>
+  </si>
+  <si>
+    <t>Has mapping to few fields of PID,PV1,OBR ,PRD HL7 segments.</t>
+  </si>
+  <si>
+    <t>No specific trigger event.Has mapping to few fields of HL7 segments.PR1 segment shall ne maiin segment out of which this resource shall be created, but no mention of it on HL7 site</t>
+  </si>
+  <si>
+    <t>SPM,ORC,PRT</t>
+  </si>
+  <si>
+    <t>OBR,ORC,IPC,PID,PV1,STA,PRT,PRA,OBX,ROL,NTE</t>
+  </si>
+  <si>
+    <t>PID,PV1,PRT,NTE,TQ1</t>
+  </si>
+  <si>
+    <t>No particular trigger event.Partial mapping from messages containing the AL1 or IAM segment, such as the ADT^A01, ADT^A08, and ADT^A60</t>
+  </si>
+  <si>
+    <t>Has mappings to many fields of  HL7 Segments specially PV1. No particular HL7 Trigger.</t>
+  </si>
+  <si>
+    <t>OBR,SPM,PRT,PV1,PID</t>
+  </si>
+  <si>
+    <t>TXA</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>not much information available, message type can be MDM</t>
+  </si>
+  <si>
+    <t>Message type can be MDM, has mapping to many TXA segment fields.</t>
+  </si>
+  <si>
+    <t>RXA,RXC,RXD,RXE,RXO,RXG</t>
+  </si>
+  <si>
+    <t>RDE,RDS</t>
+  </si>
+  <si>
+    <t>RXE,RXO,RXD,RXC,ORC</t>
+  </si>
+  <si>
+    <t>RXA,RXR</t>
+  </si>
+  <si>
+    <t>ORC,PRT,PID,PV1</t>
+  </si>
+  <si>
+    <t>No particular trigger event.has mapping to few fields from RXA,RXC,RXD,RXE,RXO,RXG segments</t>
+  </si>
+  <si>
+    <t>No particular trigger event..has mapping to few fields from RXE,RXO,RXD,RXC,ORC segments</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>No particular trigger event..has mapping to few fields from RXA,RXR,ORC,PRT,PID,PV1 segments</t>
   </si>
 </sst>
 </file>
@@ -1496,12 +1736,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1514,12 +1748,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1612,12 +1852,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1650,14 +1916,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1939,399 +2226,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" customWidth="1"/>
-    <col min="5" max="5" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.81640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+        <v>423</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>429</v>
+        <v>448</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18" t="s">
+      <c r="B9" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>440</v>
-      </c>
+      <c r="B11" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="B15" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C26" t="s">
-        <v>445</v>
-      </c>
-      <c r="D26" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="B42" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>39</v>
+      <c r="B44" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B42">
     <sortCondition ref="A1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2342,7 +2997,7 @@
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2352,10 +3007,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2363,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2371,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2379,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2387,7 +3042,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2395,7 +3050,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2403,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2411,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2419,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2427,7 +3082,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2435,7 +3090,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2443,7 +3098,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2451,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2459,7 +3114,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2467,7 +3122,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2475,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2483,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2491,7 +3146,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2499,7 +3154,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2507,7 +3162,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2515,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -2523,7 +3178,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2531,7 +3186,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2539,7 +3194,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2547,7 +3202,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -2555,7 +3210,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2563,7 +3218,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2571,7 +3226,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2579,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2587,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2595,7 +3250,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2603,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2611,7 +3266,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2619,7 +3274,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2627,7 +3282,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2635,7 +3290,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2643,7 +3298,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2651,7 +3306,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2659,7 +3314,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -2667,7 +3322,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -2675,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -2683,7 +3338,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -2691,7 +3346,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -2699,7 +3354,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -2707,7 +3362,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2715,7 +3370,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2723,7 +3378,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2731,7 +3386,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2739,7 +3394,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -2747,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2755,7 +3410,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2763,7 +3418,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2771,7 +3426,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2779,7 +3434,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2787,7 +3442,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2795,7 +3450,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2803,7 +3458,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2811,7 +3466,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2819,7 +3474,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2827,7 +3482,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2835,7 +3490,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2843,7 +3498,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -2851,7 +3506,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2859,7 +3514,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2867,7 +3522,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2875,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2883,7 +3538,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2891,7 +3546,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2899,7 +3554,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2907,7 +3562,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2915,7 +3570,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2923,7 +3578,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2931,7 +3586,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2939,7 +3594,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2947,7 +3602,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2955,7 +3610,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2963,7 +3618,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2971,7 +3626,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2979,7 +3634,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2987,7 +3642,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2995,7 +3650,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -3003,7 +3658,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -3011,7 +3666,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -3019,7 +3674,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3027,7 +3682,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -3035,7 +3690,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3043,7 +3698,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3051,7 +3706,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3059,7 +3714,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -3067,7 +3722,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3075,7 +3730,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3083,7 +3738,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3091,7 +3746,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -3099,7 +3754,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3107,7 +3762,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3115,7 +3770,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3123,7 +3778,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -3131,7 +3786,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3139,7 +3794,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -3147,7 +3802,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3155,7 +3810,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -3163,7 +3818,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -3171,7 +3826,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -3179,7 +3834,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -3187,7 +3842,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -3195,7 +3850,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -3203,7 +3858,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -3211,7 +3866,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -3219,7 +3874,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -3227,7 +3882,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -3235,7 +3890,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -3243,7 +3898,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -3251,7 +3906,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -3259,7 +3914,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -3267,7 +3922,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -3275,7 +3930,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -3283,7 +3938,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -3291,7 +3946,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -3299,7 +3954,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -3307,7 +3962,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -3315,7 +3970,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -3323,7 +3978,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -3331,7 +3986,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -3339,7 +3994,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -3347,7 +4002,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -3355,7 +4010,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -3363,7 +4018,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -3371,7 +4026,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -3379,7 +4034,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -3387,7 +4042,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -3395,7 +4050,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -3403,7 +4058,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -3411,7 +4066,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -3419,7 +4074,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -3427,7 +4082,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -3435,7 +4090,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -3443,7 +4098,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -3451,7 +4106,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -3459,7 +4114,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -3467,7 +4122,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -3475,7 +4130,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -3483,7 +4138,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -3491,7 +4146,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -3499,7 +4154,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3507,7 +4162,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4322,7 @@
   <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3677,10 +4332,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3688,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3696,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3704,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3712,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3720,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3728,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3736,7 +4391,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3744,7 +4399,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3752,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3760,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3768,7 +4423,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3776,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3784,7 +4439,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3792,7 +4447,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3800,7 +4455,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3808,7 +4463,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3816,7 +4471,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3824,7 +4479,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3832,7 +4487,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3840,7 +4495,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3848,7 +4503,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3856,7 +4511,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3864,7 +4519,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3872,7 +4527,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3880,7 +4535,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3888,7 +4543,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -3896,7 +4551,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -3904,7 +4559,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3912,7 +4567,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -3920,7 +4575,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -3928,7 +4583,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -3936,7 +4591,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3944,7 +4599,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -3952,7 +4607,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -3960,7 +4615,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -3968,7 +4623,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3976,7 +4631,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3984,7 +4639,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3992,7 +4647,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4000,7 +4655,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -4008,7 +4663,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4016,7 +4671,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4024,7 +4679,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4032,7 +4687,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4040,7 +4695,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -4048,7 +4703,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4056,7 +4711,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -4064,7 +4719,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -4072,7 +4727,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -4080,7 +4735,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -4088,7 +4743,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4096,7 +4751,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -4104,7 +4759,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -4112,7 +4767,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -4120,7 +4775,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -4128,7 +4783,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -4136,7 +4791,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -4144,7 +4799,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -4152,7 +4807,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -4160,7 +4815,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -4168,7 +4823,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -4176,7 +4831,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -4184,7 +4839,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -4192,7 +4847,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -4200,7 +4855,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -4208,7 +4863,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -4216,7 +4871,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -4224,7 +4879,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -4232,7 +4887,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -4240,7 +4895,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -4248,7 +4903,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -4256,7 +4911,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -4264,7 +4919,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -4272,7 +4927,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -4280,7 +4935,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -4288,7 +4943,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -4296,7 +4951,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -4304,7 +4959,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -4312,7 +4967,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -4320,7 +4975,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -4328,7 +4983,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -4336,7 +4991,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -4344,7 +4999,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -4352,7 +5007,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -4360,7 +5015,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -4368,7 +5023,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -4376,7 +5031,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -4384,7 +5039,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4392,7 +5047,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -4400,7 +5055,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -4408,7 +5063,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -4416,7 +5071,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -4424,7 +5079,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -4432,7 +5087,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -4440,7 +5095,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -4448,7 +5103,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -4456,7 +5111,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -4464,7 +5119,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -4472,7 +5127,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -4480,7 +5135,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -4488,7 +5143,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -4496,7 +5151,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -4504,7 +5159,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -4512,7 +5167,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -4520,7 +5175,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -4528,7 +5183,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -4536,7 +5191,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -4544,7 +5199,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -4552,7 +5207,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -4560,7 +5215,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -4568,7 +5223,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -4576,7 +5231,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -4584,7 +5239,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -4592,7 +5247,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -4600,7 +5255,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -4608,7 +5263,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -4616,7 +5271,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -4624,7 +5279,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -4632,7 +5287,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -4640,7 +5295,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -4648,7 +5303,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -4656,7 +5311,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -4664,7 +5319,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -4672,7 +5327,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -4680,7 +5335,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -4688,7 +5343,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -4696,7 +5351,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -4704,7 +5359,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -4712,7 +5367,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -4720,7 +5375,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -4728,7 +5383,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -4736,7 +5391,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -4744,7 +5399,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -4752,7 +5407,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -4760,7 +5415,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -4768,7 +5423,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -4776,7 +5431,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -4784,7 +5439,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -4792,7 +5447,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -4800,7 +5455,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -4808,7 +5463,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -4816,7 +5471,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -4824,7 +5479,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -4832,7 +5487,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -4840,7 +5495,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -4848,7 +5503,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -4856,7 +5511,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -4864,7 +5519,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -4872,7 +5527,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -4880,7 +5535,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -4888,7 +5543,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -4896,7 +5551,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -4904,7 +5559,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -4912,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -4920,7 +5575,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -4928,7 +5583,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -4936,7 +5591,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -4944,7 +5599,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -4952,7 +5607,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -4960,7 +5615,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -4968,7 +5623,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -4976,7 +5631,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -4984,7 +5639,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -4992,7 +5647,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -5000,7 +5655,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -5008,7 +5663,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -5016,7 +5671,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -5024,7 +5679,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -5032,7 +5687,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -5040,7 +5695,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -5048,7 +5703,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -5056,7 +5711,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -5064,7 +5719,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -5072,7 +5727,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -5080,7 +5735,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -5088,7 +5743,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -5096,7 +5751,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -5104,7 +5759,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -5112,7 +5767,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -5120,7 +5775,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -5128,7 +5783,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -5136,7 +5791,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -5144,7 +5799,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -5152,7 +5807,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -5160,7 +5815,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -5168,7 +5823,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -5176,7 +5831,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -5184,7 +5839,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -5192,7 +5847,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -5200,7 +5855,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -5208,7 +5863,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -5216,7 +5871,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -5224,7 +5879,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -5232,7 +5887,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -5240,7 +5895,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -5248,7 +5903,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -5256,7 +5911,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -5264,7 +5919,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -5272,7 +5927,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -5280,7 +5935,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -5288,7 +5943,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -5296,7 +5951,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -5304,7 +5959,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -5312,7 +5967,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -5320,7 +5975,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -5328,7 +5983,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -5336,7 +5991,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -5344,7 +5999,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -5352,7 +6007,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -5360,7 +6015,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -5368,7 +6023,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -5376,7 +6031,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -5384,7 +6039,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -5392,7 +6047,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -5400,7 +6055,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -5408,7 +6063,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -5416,7 +6071,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -5424,7 +6079,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -5432,7 +6087,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -5440,7 +6095,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -5448,7 +6103,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -5456,7 +6111,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -5464,7 +6119,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -5472,7 +6127,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -5480,7 +6135,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -5488,7 +6143,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -5496,7 +6151,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -5504,7 +6159,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -5512,7 +6167,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -5520,7 +6175,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -5528,7 +6183,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5536,7 +6191,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
